--- a/experiment/linear/ex9_1_9/compare/Alpha-Zero/ex9_1_9_Alpha-Zero.xlsx
+++ b/experiment/linear/ex9_1_9/compare/Alpha-Zero/ex9_1_9_Alpha-Zero.xlsx
@@ -482,13 +482,13 @@
         <v>-2.902399999999999</v>
       </c>
       <c r="E2">
-        <v>0.00022221</v>
+        <v>0.00029023</v>
       </c>
       <c r="F2">
-        <v>0.01536507</v>
+        <v>0.020966341</v>
       </c>
       <c r="G2">
-        <v>0.000393339375</v>
+        <v>0.0004643262269</v>
       </c>
       <c r="H2">
         <v>1856</v>
@@ -517,13 +517,13 @@
         <v>-2.902399999999999</v>
       </c>
       <c r="E3">
-        <v>0.00326205</v>
+        <v>0.004447704</v>
       </c>
       <c r="F3">
-        <v>0.01040355</v>
+        <v>0.011329634</v>
       </c>
       <c r="G3">
-        <v>0.0041576755203996665</v>
+        <v>0.005123980320000001</v>
       </c>
       <c r="H3">
         <v>2612</v>
@@ -552,13 +552,13 @@
         <v>3.976000000888295</v>
       </c>
       <c r="E4">
-        <v>0.00698823</v>
+        <v>0.007879484</v>
       </c>
       <c r="F4">
-        <v>0.01241847</v>
+        <v>0.015375549</v>
       </c>
       <c r="G4">
-        <v>0.00798059587859425</v>
+        <v>0.009638699485549133</v>
       </c>
       <c r="H4">
         <v>9271</v>
